--- a/test_data/test_case_data.xlsx
+++ b/test_data/test_case_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15600" windowHeight="12375"/>
+    <workbookView windowWidth="20930" windowHeight="10730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -37,10 +37,10 @@
     <t>请求地址</t>
   </si>
   <si>
-    <t>请求参数（get）</t>
-  </si>
-  <si>
-    <t>提交数据（post）</t>
+    <t>请求参数(get)</t>
+  </si>
+  <si>
+    <t>提交数据(post)</t>
   </si>
   <si>
     <t>取值方式</t>
@@ -67,13 +67,37 @@
     <t>step01</t>
   </si>
   <si>
+    <t>/cgi-bin/token</t>
+  </si>
+  <si>
+    <t>{'grant_type':'client_credential','appid':'wx95b88e450068c8d2','secret':'5b6d758ece15c636e2c0a16fe56a2d97'}</t>
+  </si>
+  <si>
     <t>case02</t>
   </si>
   <si>
     <t>测试能否正确新增用户标签</t>
   </si>
   <si>
+    <t>json取值</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>$.access_token</t>
+  </si>
+  <si>
     <t>step02</t>
+  </si>
+  <si>
+    <t>/cgi-bin/tags/create</t>
+  </si>
+  <si>
+    <t>{'access_token':${token}}</t>
+  </si>
+  <si>
+    <t>{"tag":{"name":"opiio12121"}}</t>
   </si>
   <si>
     <t>case03</t>
@@ -87,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -101,6 +125,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -109,17 +154,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,21 +217,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -156,13 +224,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -170,52 +232,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -223,9 +255,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,13 +264,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,19 +278,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,163 +440,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,16 +488,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,17 +520,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,17 +569,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -553,10 +577,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,133 +589,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1023,15 +1047,20 @@
   <sheetPr/>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="34.625" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="12.8727272727273" customWidth="1"/>
+    <col min="2" max="2" width="31.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="12.8727272727273" customWidth="1"/>
+    <col min="6" max="6" width="6.18181818181818" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="120.909090909091" customWidth="1"/>
+    <col min="9" max="9" width="111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1075,7 +1104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1088,13 +1117,19 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -1102,25 +1137,49 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
